--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,21 +55,15 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -82,231 +76,249 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>cakes</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>sturdy</t>
+    <t>enjoy</t>
   </si>
   <si>
     <t>rice</t>
   </si>
   <si>
-    <t>bread</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>cream</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>good</t>
   </si>
   <si>
     <t>always</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>day</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>exactly</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>ice</t>
+    <t>every</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>far</t>
   </si>
   <si>
+    <t>makes</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>every</t>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>cup</t>
+    <t>long</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -316,16 +328,19 @@
     <t>time</t>
   </si>
   <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
-    <t>use</t>
+    <t>product</t>
   </si>
   <si>
     <t>positive</t>
@@ -686,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,10 +709,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -755,13 +770,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -773,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -797,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -826,16 +841,16 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9130434782608695</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -847,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -876,16 +891,16 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.890625</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -897,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -905,13 +920,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4150943396226415</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -923,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8637770897832817</v>
+        <v>0.8671875</v>
       </c>
       <c r="L6">
-        <v>558</v>
+        <v>111</v>
       </c>
       <c r="M6">
-        <v>558</v>
+        <v>111</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -947,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -955,13 +970,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3565891472868217</v>
+        <v>0.3410852713178295</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -973,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8405797101449275</v>
+        <v>0.8637770897832817</v>
       </c>
       <c r="L7">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="M7">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -997,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1005,13 +1020,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.34</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1023,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1047,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1055,13 +1070,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3131313131313131</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1073,19 +1088,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.7445887445887446</v>
+        <v>0.70995670995671</v>
       </c>
       <c r="L9">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M9">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1097,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1105,13 +1120,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.282051282051282</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1123,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.7142857142857143</v>
+        <v>0.684931506849315</v>
       </c>
       <c r="L10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1147,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1155,13 +1170,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1666666666666667</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1173,113 +1188,65 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.6753246753246753</v>
+      </c>
+      <c r="L11">
+        <v>52</v>
+      </c>
+      <c r="M11">
+        <v>52</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12">
+        <v>0.6711864406779661</v>
+      </c>
+      <c r="L12">
+        <v>198</v>
+      </c>
+      <c r="M12">
+        <v>198</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K11">
-        <v>0.7050847457627119</v>
-      </c>
-      <c r="L11">
-        <v>208</v>
-      </c>
-      <c r="M11">
-        <v>208</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1271186440677966</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>103</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.704225352112676</v>
-      </c>
-      <c r="L12">
-        <v>50</v>
-      </c>
-      <c r="M12">
-        <v>50</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.0972972972972973</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>167</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.6590909090909091</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="L13">
         <v>29</v>
@@ -1297,21 +1264,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.6444444444444445</v>
+        <v>0.6338028169014085</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,21 +1290,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.6438356164383562</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>786</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>786</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,21 +1316,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.6380417335473515</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L16">
-        <v>795</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>795</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>451</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.6057142857142858</v>
+        <v>0.6136363636363636</v>
       </c>
       <c r="L17">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.578125</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L18">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1427,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19">
+        <v>0.5625</v>
+      </c>
+      <c r="L19">
         <v>36</v>
       </c>
-      <c r="K19">
-        <v>0.5301204819277109</v>
-      </c>
-      <c r="L19">
-        <v>44</v>
-      </c>
       <c r="M19">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1453,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.5263157894736842</v>
+        <v>0.5625</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1479,47 +1446,47 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.5208333333333334</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="L21">
+        <v>32</v>
+      </c>
+      <c r="M21">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>25</v>
-      </c>
-      <c r="M21">
-        <v>25</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>23</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5147058823529411</v>
+        <v>0.5542857142857143</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1531,21 +1498,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>33</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5142857142857142</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1557,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5128205128205128</v>
+        <v>0.5131578947368421</v>
       </c>
       <c r="L24">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1583,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5096153846153846</v>
+        <v>0.51</v>
       </c>
       <c r="L25">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M25">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1609,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1635,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4970059880239521</v>
+        <v>0.5</v>
       </c>
       <c r="L27">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1661,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4901960784313725</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1687,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K29">
-        <v>0.48</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1713,21 +1680,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.4603174603174603</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1739,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.4337349397590362</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L31">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1765,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.4210526315789473</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1791,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.4074074074074074</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1817,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.3909774436090225</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L34">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1843,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.3846153846153846</v>
+        <v>0.3915662650602409</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1869,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.3846153846153846</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1895,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.3651960784313725</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L37">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="M37">
-        <v>149</v>
+        <v>24</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1921,21 +1888,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>259</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.3579766536964981</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="L38">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="M38">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1947,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>165</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.3278688524590164</v>
+        <v>0.3627450980392157</v>
       </c>
       <c r="L39">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1973,21 +1940,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.3265306122448979</v>
+        <v>0.345679012345679</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1999,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>33</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.3164383561643835</v>
+        <v>0.3382352941176471</v>
       </c>
       <c r="L41">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2025,21 +1992,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>499</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.3063063063063063</v>
+        <v>0.3346303501945525</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2051,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>77</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.2980132450331126</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="L43">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2077,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>106</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.2949640287769784</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L44">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M44">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2103,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.2932330827067669</v>
+        <v>0.3123287671232877</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2129,21 +2096,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>94</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.2903225806451613</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2155,21 +2122,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.2857142857142857</v>
+        <v>0.2882882882882883</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2181,21 +2148,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.2763157894736842</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2207,21 +2174,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>55</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>0.2679425837320574</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L49">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2233,21 +2200,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>153</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K50">
-        <v>0.2647058823529412</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L50">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="M50">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2259,21 +2226,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>50</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K51">
-        <v>0.25</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L51">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2285,21 +2252,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K52">
-        <v>0.2421959095801938</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L52">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2311,21 +2278,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>704</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K53">
-        <v>0.2178217821782178</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2337,21 +2304,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K54">
-        <v>0.212962962962963</v>
+        <v>0.2580645161290323</v>
       </c>
       <c r="L54">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2363,21 +2330,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>85</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K55">
-        <v>0.2072072072072072</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="L55">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2389,21 +2356,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K56">
-        <v>0.2013245033112583</v>
+        <v>0.2517985611510791</v>
       </c>
       <c r="L56">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="M56">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2415,47 +2382,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>603</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K57">
-        <v>0.1987179487179487</v>
+        <v>0.2381465517241379</v>
       </c>
       <c r="L57">
-        <v>155</v>
+        <v>221</v>
       </c>
       <c r="M57">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="N57">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>625</v>
+        <v>707</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K58">
-        <v>0.1818181818181818</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L58">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2467,21 +2434,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>261</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K59">
-        <v>0.1812080536912752</v>
+        <v>0.2277227722772277</v>
       </c>
       <c r="L59">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2493,21 +2460,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>122</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K60">
-        <v>0.1630434782608696</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2519,73 +2486,73 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K61">
-        <v>0.1540540540540541</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L61">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="M61">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="N61">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>313</v>
+        <v>602</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K62">
-        <v>0.1428571428571428</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M62">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N62">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>96</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K63">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2597,21 +2564,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K64">
-        <v>0.1337719298245614</v>
+        <v>0.1790281329923274</v>
       </c>
       <c r="L64">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="M64">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2623,47 +2590,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>395</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K65">
-        <v>0.1311475409836066</v>
+        <v>0.1696428571428572</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K66">
-        <v>0.125</v>
+        <v>0.1692789968652038</v>
       </c>
       <c r="L66">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M66">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2675,21 +2642,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>385</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K67">
-        <v>0.1219512195121951</v>
+        <v>0.1646341463414634</v>
       </c>
       <c r="L67">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M67">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2701,47 +2668,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K68">
+        <v>0.15</v>
+      </c>
+      <c r="L68">
+        <v>15</v>
+      </c>
+      <c r="M68">
+        <v>15</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>85</v>
-      </c>
-      <c r="K68">
-        <v>0.1145584725536993</v>
-      </c>
-      <c r="L68">
-        <v>48</v>
-      </c>
-      <c r="M68">
-        <v>48</v>
-      </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>371</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K69">
-        <v>0.1119221411192214</v>
+        <v>0.1452991452991453</v>
       </c>
       <c r="L69">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="M69">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2753,21 +2720,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>365</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K70">
-        <v>0.1107011070110701</v>
+        <v>0.1447368421052632</v>
       </c>
       <c r="L70">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="M70">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2779,47 +2746,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>241</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K71">
-        <v>0.1104294478527607</v>
+        <v>0.1324324324324324</v>
       </c>
       <c r="L71">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M71">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>145</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K72">
-        <v>0.1050420168067227</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="L72">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M72">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2831,47 +2798,47 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>213</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K73">
-        <v>0.1037037037037037</v>
+        <v>0.1185185185185185</v>
       </c>
       <c r="L73">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M73">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K74">
-        <v>0.1030927835051546</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L74">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M74">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2883,21 +2850,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>261</v>
+        <v>390</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K75">
-        <v>0.1016949152542373</v>
+        <v>0.1129943502824859</v>
       </c>
       <c r="L75">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2909,47 +2876,47 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K76">
-        <v>0.09900990099009901</v>
+        <v>0.1104294478527607</v>
       </c>
       <c r="L76">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M76">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N76">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K77">
-        <v>0.09615384615384616</v>
+        <v>0.1083743842364532</v>
       </c>
       <c r="L77">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M77">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2961,21 +2928,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>141</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K78">
-        <v>0.07929104477611941</v>
+        <v>0.1046228710462287</v>
       </c>
       <c r="L78">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="M78">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2987,21 +2954,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>987</v>
+        <v>368</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K79">
-        <v>0.07211538461538461</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3013,47 +2980,47 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>193</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K80">
-        <v>0.06321839080459771</v>
+        <v>0.1</v>
       </c>
       <c r="L80">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M80">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N80">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>652</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K81">
-        <v>0.06010928961748634</v>
+        <v>0.09663865546218488</v>
       </c>
       <c r="L81">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M81">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3065,125 +3032,125 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>344</v>
+        <v>215</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K82">
-        <v>0.05545286506469501</v>
+        <v>0.09307875894988067</v>
       </c>
       <c r="L82">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M82">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N82">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>511</v>
+        <v>380</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K83">
-        <v>0.05102040816326531</v>
+        <v>0.07903780068728522</v>
       </c>
       <c r="L83">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M83">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N83">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O83">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q83">
-        <v>372</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K84">
-        <v>0.0467032967032967</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L84">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M84">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N84">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>347</v>
+        <v>192</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K85">
-        <v>0.04358353510895883</v>
+        <v>0.07096171802054155</v>
       </c>
       <c r="L85">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="M85">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="N85">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O85">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>395</v>
+        <v>995</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K86">
-        <v>0.0380952380952381</v>
+        <v>0.06609195402298851</v>
       </c>
       <c r="L86">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M86">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N86">
         <v>0.96</v>
@@ -3195,7 +3162,189 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>1111</v>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K87">
+        <v>0.06010928961748634</v>
+      </c>
+      <c r="L87">
+        <v>22</v>
+      </c>
+      <c r="M87">
+        <v>22</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K88">
+        <v>0.05350553505535055</v>
+      </c>
+      <c r="L88">
+        <v>29</v>
+      </c>
+      <c r="M88">
+        <v>29</v>
+      </c>
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K89">
+        <v>0.04683434518647007</v>
+      </c>
+      <c r="L89">
+        <v>54</v>
+      </c>
+      <c r="M89">
+        <v>58</v>
+      </c>
+      <c r="N89">
+        <v>0.93</v>
+      </c>
+      <c r="O89">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K90">
+        <v>0.04431599229287091</v>
+      </c>
+      <c r="L90">
+        <v>23</v>
+      </c>
+      <c r="M90">
+        <v>26</v>
+      </c>
+      <c r="N90">
+        <v>0.88</v>
+      </c>
+      <c r="O90">
+        <v>0.12</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K91">
+        <v>0.03826530612244898</v>
+      </c>
+      <c r="L91">
+        <v>15</v>
+      </c>
+      <c r="M91">
+        <v>17</v>
+      </c>
+      <c r="N91">
+        <v>0.88</v>
+      </c>
+      <c r="O91">
+        <v>0.12</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K92">
+        <v>0.03631961259079903</v>
+      </c>
+      <c r="L92">
+        <v>15</v>
+      </c>
+      <c r="M92">
+        <v>16</v>
+      </c>
+      <c r="N92">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O92">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K93">
+        <v>0.01971090670170828</v>
+      </c>
+      <c r="L93">
+        <v>15</v>
+      </c>
+      <c r="M93">
+        <v>21</v>
+      </c>
+      <c r="N93">
+        <v>0.71</v>
+      </c>
+      <c r="O93">
+        <v>0.29</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
